--- a/xlsx/planes.xlsx
+++ b/xlsx/planes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\propuestas-candidatos\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556E36C9-8285-4A64-88B1-925531204910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EAA2E1-0992-4E27-8438-4909EB1E72C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salud" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="FuF">Institucional!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="362">
   <si>
     <t>Creación de empleo</t>
   </si>
@@ -1121,6 +1122,12 @@
   </si>
   <si>
     <t>Informalidad</t>
+  </si>
+  <si>
+    <t>Partidos</t>
+  </si>
+  <si>
+    <t>no hay texto</t>
   </si>
 </sst>
 </file>
@@ -1670,8 +1677,8 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1692,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1718,7 +1727,9 @@
       <c r="D2" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="F2" s="13" t="s">
         <v>172</v>
       </c>
@@ -1739,7 +1750,9 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="F3" s="13" t="s">
         <v>173</v>
       </c>
@@ -1747,7 +1760,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="199.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1760,7 +1773,9 @@
       <c r="D4" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="F4" s="13" t="s">
         <v>174</v>
       </c>
@@ -1841,10 +1856,18 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>361</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1856,14 +1879,18 @@
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="C9" s="15" t="s">
         <v>161</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="F9" s="15" t="s">
         <v>178</v>
       </c>
@@ -1898,7 +1925,9 @@
       <c r="A11" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="C11" s="13" t="s">
         <v>114</v>
       </c>
@@ -1910,6 +1939,9 @@
       </c>
       <c r="F11" s="13" t="s">
         <v>117</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -1922,6 +1954,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1929,9 +1962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1948,7 +1981,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2016,7 +2051,9 @@
       <c r="F3" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="H3" s="4" t="s">
         <v>349</v>
       </c>
@@ -2193,7 +2230,9 @@
       <c r="E10" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="G10" s="13" t="s">
         <v>109</v>
       </c>
@@ -2220,7 +2259,12 @@
       <c r="F11" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>361</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2233,8 +2277,8 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2247,7 +2291,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
@@ -2277,7 +2323,9 @@
       <c r="C2" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="E2" s="15" t="s">
         <v>133</v>
       </c>
@@ -2298,7 +2346,9 @@
       <c r="C3" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="E3" s="15" t="s">
         <v>263</v>
       </c>
@@ -2325,7 +2375,9 @@
       <c r="E4" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>357</v>
       </c>
@@ -2363,7 +2415,9 @@
       <c r="C6" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="E6" s="15" t="s">
         <v>255</v>
       </c>
@@ -2381,8 +2435,12 @@
       <c r="B7" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="E7" s="15" t="s">
         <v>251</v>
       </c>
@@ -2397,12 +2455,18 @@
       <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="C8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="F8" s="15" t="s">
         <v>83</v>
       </c>
@@ -2420,7 +2484,9 @@
       <c r="C9" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="E9" s="15" t="s">
         <v>79</v>
       </c>
@@ -2441,7 +2507,9 @@
       <c r="C10" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="E10" s="15" t="s">
         <v>81</v>
       </c>
@@ -2456,10 +2524,18 @@
       <c r="A11" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>361</v>
+      </c>
       <c r="F11" s="12" t="s">
         <v>112</v>
       </c>
@@ -2474,7 +2550,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -2489,7 +2565,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2640,7 +2718,9 @@
       <c r="E7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="G7" s="4" t="s">
         <v>325</v>
       </c>
@@ -2652,7 +2732,9 @@
       <c r="B8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="D8" s="13" t="s">
         <v>87</v>
       </c>
@@ -2719,7 +2801,9 @@
       <c r="B11" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="D11" s="13" t="s">
         <v>225</v>
       </c>
@@ -2743,7 +2827,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -2760,7 +2844,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="54" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>36</v>
       </c>
@@ -2919,12 +3005,18 @@
       <c r="B8" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="D8" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="G8" s="4" t="s">
         <v>300</v>
       </c>
@@ -2988,8 +3080,12 @@
       <c r="D11" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="G11" s="4" t="s">
         <v>301</v>
       </c>
@@ -3003,9 +3099,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3019,7 +3115,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="54" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
@@ -3161,8 +3259,12 @@
       <c r="B7" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="E7" s="13" t="s">
         <v>54</v>
       </c>
@@ -3183,7 +3285,9 @@
       <c r="C8" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="E8" s="13" t="s">
         <v>92</v>
       </c>
@@ -3194,7 +3298,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="228" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3204,7 +3308,9 @@
       <c r="C9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="E9" s="13" t="s">
         <v>199</v>
       </c>
@@ -3219,11 +3325,15 @@
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="C10" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>361</v>
+      </c>
       <c r="E10" s="13" t="s">
         <v>202</v>
       </c>
@@ -3238,11 +3348,15 @@
       <c r="A11" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="17" t="s">
+        <v>361</v>
+      </c>
       <c r="C11" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="17" t="s">
+        <v>361</v>
+      </c>
       <c r="E11" s="17" t="s">
         <v>205</v>
       </c>
